--- a/People/Trait Worksheet.xlsx
+++ b/People/Trait Worksheet.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Positive" sheetId="1" r:id="rId1"/>
+    <sheet name="Neutral" sheetId="2" r:id="rId2"/>
+    <sheet name="Negative" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="655">
   <si>
     <t>Accessible</t>
   </si>
@@ -726,9 +728,6 @@
     <t>Youthful</t>
   </si>
   <si>
-    <t>Overall Trait Worksheet</t>
-  </si>
-  <si>
     <t>Not used</t>
   </si>
   <si>
@@ -1954,6 +1953,39 @@
   </si>
   <si>
     <t>Pharisaical</t>
+  </si>
+  <si>
+    <t>*Size</t>
+  </si>
+  <si>
+    <t>*-Added descriptor</t>
+  </si>
+  <si>
+    <t>5 - Key descriptor</t>
+  </si>
+  <si>
+    <t>4 - Leadership trait?</t>
+  </si>
+  <si>
+    <t>3 - Descriptor</t>
+  </si>
+  <si>
+    <t>2 - Associated</t>
+  </si>
+  <si>
+    <t>Positive Trait Worksheet</t>
+  </si>
+  <si>
+    <t>Neutral Trait Worksheet</t>
+  </si>
+  <si>
+    <t>Absentminded</t>
+  </si>
+  <si>
+    <t>Negative Trait Worksheet</t>
+  </si>
+  <si>
+    <t>Abrasive</t>
   </si>
 </sst>
 </file>
@@ -2306,9 +2338,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S296"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2324,25 +2356,42 @@
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>235</v>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>237</v>
+      </c>
+      <c r="G3" t="s">
+        <v>645</v>
+      </c>
+      <c r="I3" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>632</v>
+        <v>631</v>
+      </c>
+      <c r="I4" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>649</v>
+      </c>
       <c r="O5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2350,2598 +2399,6243 @@
         <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>55</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="7">
+        <v>3</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7">
+        <v>2</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="F7" s="7">
+        <v>3</v>
+      </c>
       <c r="G7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="B8" s="7">
+        <v>3</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7">
+        <v>4</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="F8" s="7">
+        <v>3</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7">
+        <v>3</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="F9" s="7">
+        <v>4</v>
+      </c>
       <c r="G9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="B10" s="7">
+        <v>4</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7">
+        <v>2</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="F10" s="7">
+        <v>4</v>
+      </c>
       <c r="G10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="B11" s="7">
+        <v>4</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="F11" s="7">
+        <v>4</v>
+      </c>
       <c r="G11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="B12" s="7">
+        <v>5</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>632</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="F12" s="7">
+        <v>4</v>
+      </c>
       <c r="G12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="B13" s="7">
+        <v>4</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="F13" s="7">
+        <v>4</v>
+      </c>
       <c r="G13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="B14" s="7">
+        <v>3</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4</v>
+      </c>
       <c r="E14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="F14" s="7">
+        <v>3</v>
+      </c>
       <c r="G14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="B15" s="7">
+        <v>4</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="D15" s="5">
+        <v>5</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="F15" s="7">
+        <v>3</v>
+      </c>
       <c r="G15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="B16" s="7">
+        <v>2</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>103</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="F16" s="7">
+        <v>4</v>
+      </c>
       <c r="G16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2</v>
+      </c>
       <c r="C17" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="F17" s="7">
+        <v>3</v>
+      </c>
       <c r="G17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="B18" s="7">
+        <v>4</v>
+      </c>
       <c r="C18" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="F18" s="7">
+        <v>4</v>
+      </c>
       <c r="G18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="B19" s="7">
+        <v>5</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>126</v>
+        <v>194</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="F19" s="7">
+        <v>4</v>
+      </c>
       <c r="G19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="B20" s="7">
+        <v>4</v>
+      </c>
       <c r="C20" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
+      </c>
+      <c r="D20" s="5">
+        <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="F20" s="7">
+        <v>4</v>
+      </c>
       <c r="G20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4</v>
+      </c>
       <c r="C21" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
+      </c>
+      <c r="D21" s="5">
+        <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="F21" s="7">
+        <v>4</v>
+      </c>
       <c r="G21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="B22" s="7">
+        <v>2</v>
+      </c>
       <c r="C22" s="1" t="s">
-        <v>205</v>
+        <v>234</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="F22" s="7">
+        <v>3</v>
+      </c>
       <c r="G22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="B23" s="7">
+        <v>4</v>
+      </c>
       <c r="C23" s="1" t="s">
-        <v>234</v>
+        <v>644</v>
+      </c>
+      <c r="D23" s="5">
+        <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="F23" s="7">
+        <v>5</v>
+      </c>
       <c r="G23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="B24" s="7">
+        <v>3</v>
+      </c>
       <c r="E24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="F24" s="7">
+        <v>4</v>
+      </c>
       <c r="G24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="B25" s="7">
+        <v>2</v>
+      </c>
       <c r="E25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="F25" s="7">
+        <v>3</v>
+      </c>
       <c r="G25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="B26" s="7">
+        <v>2</v>
+      </c>
       <c r="E26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="F26" s="7">
+        <v>4</v>
+      </c>
       <c r="G26" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="B27" s="7">
+        <v>3</v>
+      </c>
       <c r="E27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="F27" s="7">
+        <v>2</v>
+      </c>
       <c r="G27" s="1" t="s">
         <v>109</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="B28" s="7">
+        <v>4</v>
+      </c>
       <c r="E28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="F28" s="7">
+        <v>4</v>
+      </c>
       <c r="G28" s="1" t="s">
         <v>111</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="B29" s="5">
+        <v>4</v>
+      </c>
       <c r="E29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="F29" s="7">
+        <v>2</v>
+      </c>
       <c r="G29" s="1" t="s">
         <v>118</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="B30" s="5">
+        <v>4</v>
+      </c>
       <c r="E30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="F30" s="7">
+        <v>3</v>
+      </c>
       <c r="G30" s="1" t="s">
         <v>121</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="B31" s="5">
+        <v>4</v>
+      </c>
       <c r="E31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F31" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="F31" s="7">
+        <v>4</v>
+      </c>
       <c r="G31" s="1" t="s">
         <v>123</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
+      </c>
+      <c r="B32" s="5">
+        <v>5</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="F32" s="7">
+        <v>4</v>
+      </c>
       <c r="G32" s="1" t="s">
         <v>124</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
+      </c>
+      <c r="B33" s="5">
+        <v>4</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="F33" s="7">
+        <v>4</v>
+      </c>
       <c r="G33" s="1" t="s">
         <v>130</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
+      </c>
+      <c r="B34" s="5">
+        <v>3</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="F34" s="7">
+        <v>4</v>
+      </c>
       <c r="G34" s="1" t="s">
         <v>131</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
+      </c>
+      <c r="B35" s="5">
+        <v>4</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="F35" s="7">
+        <v>4</v>
+      </c>
       <c r="G35" s="1" t="s">
         <v>132</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
+      </c>
+      <c r="B36" s="5">
+        <v>4</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F36" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="F36" s="7">
+        <v>4</v>
+      </c>
       <c r="G36" s="1" t="s">
         <v>137</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>116</v>
+        <v>637</v>
+      </c>
+      <c r="B37" s="5">
+        <v>4</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F37" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="F37" s="7">
+        <v>3</v>
+      </c>
       <c r="G37" s="1" t="s">
         <v>139</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>120</v>
+        <v>135</v>
+      </c>
+      <c r="B38" s="5">
+        <v>3</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F38" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="F38" s="7">
+        <v>2</v>
+      </c>
       <c r="G38" s="1" t="s">
         <v>140</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
+      </c>
+      <c r="B39" s="5">
+        <v>3</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F39" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="F39" s="7">
+        <v>3</v>
+      </c>
       <c r="G39" s="1" t="s">
         <v>141</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>638</v>
+        <v>143</v>
+      </c>
+      <c r="B40" s="5">
+        <v>2</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F40" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="F40" s="7">
+        <v>3</v>
+      </c>
       <c r="G40" s="1" t="s">
         <v>150</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
+      </c>
+      <c r="B41" s="5">
+        <v>4</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F41" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="F41" s="7">
+        <v>2</v>
+      </c>
       <c r="G41" s="1" t="s">
         <v>151</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
+      </c>
+      <c r="B42" s="5">
+        <v>3</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F42" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="F42" s="7">
+        <v>2</v>
+      </c>
       <c r="G42" s="1" t="s">
         <v>152</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
+      </c>
+      <c r="B43" s="5">
+        <v>4</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F43" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="F43" s="7">
+        <v>3</v>
+      </c>
       <c r="G43" s="1" t="s">
         <v>158</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
+      </c>
+      <c r="B44" s="5">
+        <v>3</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F44" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="F44" s="7">
+        <v>5</v>
+      </c>
       <c r="G44" s="1" t="s">
         <v>160</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
+      </c>
+      <c r="B45" s="5">
+        <v>4</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F45" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="F45" s="7">
+        <v>3</v>
+      </c>
       <c r="G45" s="1" t="s">
         <v>162</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
+      </c>
+      <c r="B46" s="5">
+        <v>4</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F46" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F46" s="7">
+        <v>3</v>
+      </c>
       <c r="G46" s="1" t="s">
         <v>166</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>149</v>
+        <v>639</v>
+      </c>
+      <c r="B47" s="5">
+        <v>4</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F47" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="F47" s="5">
+        <v>3</v>
+      </c>
       <c r="G47" s="1" t="s">
         <v>172</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>154</v>
+        <v>163</v>
+      </c>
+      <c r="B48" s="5">
+        <v>4</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F48" s="7"/>
+        <v>106</v>
+      </c>
+      <c r="F48" s="5">
+        <v>3</v>
+      </c>
       <c r="G48" s="1" t="s">
         <v>173</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
+      </c>
+      <c r="B49" s="5">
+        <v>4</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F49" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="F49" s="5">
+        <v>2</v>
+      </c>
       <c r="G49" s="1" t="s">
         <v>174</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
+      </c>
+      <c r="B50" s="5">
+        <v>4</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F50" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="F50" s="5">
+        <v>4</v>
+      </c>
       <c r="G50" s="1" t="s">
         <v>188</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>640</v>
+        <v>168</v>
+      </c>
+      <c r="B51" s="5">
+        <v>4</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F51" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="F51" s="5">
+        <v>4</v>
+      </c>
       <c r="G51" s="1" t="s">
         <v>190</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
+      </c>
+      <c r="B52" s="5">
+        <v>2</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F52" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="F52" s="5">
+        <v>4</v>
+      </c>
       <c r="G52" s="1" t="s">
         <v>193</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>164</v>
+        <v>176</v>
+      </c>
+      <c r="B53" s="5">
+        <v>2</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F53" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="F53" s="5">
+        <v>3</v>
+      </c>
       <c r="G53" s="1" t="s">
         <v>198</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>165</v>
+        <v>177</v>
+      </c>
+      <c r="B54" s="5">
+        <v>2</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>105</v>
+        <v>129</v>
+      </c>
+      <c r="F54" s="5">
+        <v>4</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>200</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>168</v>
+        <v>199</v>
+      </c>
+      <c r="B55" s="5">
+        <v>3</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
+      </c>
+      <c r="F55" s="5">
+        <v>4</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>207</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>175</v>
+        <v>206</v>
+      </c>
+      <c r="B56" s="5">
+        <v>3</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>115</v>
+        <v>144</v>
+      </c>
+      <c r="F56" s="5">
+        <v>4</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>208</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>176</v>
+        <v>211</v>
+      </c>
+      <c r="B57" s="5">
+        <v>4</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>117</v>
+        <v>145</v>
+      </c>
+      <c r="F57" s="5">
+        <v>4</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>209</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>177</v>
+        <v>213</v>
+      </c>
+      <c r="B58" s="5">
+        <v>4</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>119</v>
+        <v>148</v>
+      </c>
+      <c r="F58" s="5">
+        <v>3</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>212</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>199</v>
+        <v>214</v>
+      </c>
+      <c r="B59" s="5">
+        <v>4</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>122</v>
+        <v>153</v>
+      </c>
+      <c r="F59" s="5">
+        <v>3</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>215</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>206</v>
+        <v>229</v>
+      </c>
+      <c r="B60" s="5">
+        <v>3</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>125</v>
+        <v>156</v>
+      </c>
+      <c r="F60" s="5">
+        <v>4</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>217</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>211</v>
+        <v>232</v>
+      </c>
+      <c r="B61" s="5">
+        <v>3</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>127</v>
+        <v>159</v>
+      </c>
+      <c r="F61" s="5">
+        <v>3</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>221</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>213</v>
+        <v>233</v>
+      </c>
+      <c r="B62" s="5">
+        <v>2</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>129</v>
+        <v>161</v>
+      </c>
+      <c r="F62" s="5">
+        <v>3</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>222</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>214</v>
+        <v>134</v>
+      </c>
+      <c r="B63" s="5">
+        <v>3</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>133</v>
+        <v>167</v>
+      </c>
+      <c r="F63" s="5">
+        <v>4</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>224</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="E64" s="1" t="s">
-        <v>134</v>
+        <v>169</v>
+      </c>
+      <c r="F64" s="5">
+        <v>4</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>226</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>232</v>
-      </c>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="65" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E65" s="1" t="s">
-        <v>136</v>
+        <v>170</v>
+      </c>
+      <c r="F65" s="5">
+        <v>4</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>228</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>233</v>
-      </c>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="66" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E66" s="1" t="s">
-        <v>144</v>
+        <v>171</v>
+      </c>
+      <c r="F66" s="5">
+        <v>3</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>230</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="67" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E67" s="1" t="s">
-        <v>145</v>
+        <v>178</v>
+      </c>
+      <c r="F67" s="5">
+        <v>3</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>231</v>
       </c>
       <c r="O67" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="68" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E68" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F68" s="5">
+        <v>2</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O68" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="S67" s="1" t="s">
+      <c r="S68" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E68" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="O68" s="1" t="s">
+    <row r="69" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E69" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F69" s="5">
+        <v>2</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O69" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="S68" s="1" t="s">
+      <c r="S69" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E69" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="O69" s="1" t="s">
+    <row r="70" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E70" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F70" s="5">
+        <v>3</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O70" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="S69" s="1" t="s">
+      <c r="S70" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E70" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="O70" s="1" t="s">
+    <row r="71" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E71" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F71" s="5">
+        <v>3</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O71" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="S70" s="1" t="s">
+      <c r="S71" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E71" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O71" s="1" t="s">
+    <row r="72" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E72" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F72" s="5">
+        <v>3</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O72" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="S71" s="1" t="s">
+      <c r="S72" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E72" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O72" s="1" t="s">
+    <row r="73" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E73" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F73" s="5">
+        <v>2</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O73" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="S72" s="1" t="s">
+      <c r="S73" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E73" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O73" s="1" t="s">
+    <row r="74" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E74" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F74" s="5">
+        <v>4</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O74" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="S73" s="1" t="s">
+      <c r="S74" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E74" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="O74" s="1" t="s">
+    <row r="75" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E75" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F75" s="5">
+        <v>2</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O75" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="S74" s="1" t="s">
+      <c r="S75" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E75" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="O75" s="1" t="s">
+    <row r="76" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E76" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F76" s="5">
+        <v>3</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O76" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="S75" s="1" t="s">
+      <c r="S76" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E76" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="O76" s="1" t="s">
+    <row r="77" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E77" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F77" s="5">
+        <v>3</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O77" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="S76" s="1" t="s">
+      <c r="S77" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E77" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="O77" s="1" t="s">
+    <row r="78" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E78" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F78" s="5">
+        <v>3</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O78" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="S77" s="1" t="s">
+      <c r="S78" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E78" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="O78" s="1" t="s">
+    <row r="79" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E79" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F79" s="5">
+        <v>3</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="O79" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="S78" s="1" t="s">
+      <c r="S79" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E79" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="O79" s="1" t="s">
+    <row r="80" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E80" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F80" s="5">
+        <v>3</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O80" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="S79" s="1" t="s">
+      <c r="S80" s="1" t="s">
         <v>417</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E80" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="O80" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="S80" s="1" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="81" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E81" s="1" t="s">
-        <v>182</v>
+        <v>210</v>
+      </c>
+      <c r="F81" s="5">
+        <v>4</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="82" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E82" s="1" t="s">
-        <v>183</v>
+        <v>216</v>
+      </c>
+      <c r="F82" s="5">
+        <v>4</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="83" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E83" s="1" t="s">
-        <v>184</v>
+        <v>218</v>
+      </c>
+      <c r="F83" s="5">
+        <v>3</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="84" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E84" s="1" t="s">
-        <v>185</v>
+        <v>219</v>
+      </c>
+      <c r="F84" s="5">
+        <v>3</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="85" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E85" s="1" t="s">
-        <v>186</v>
+        <v>220</v>
+      </c>
+      <c r="F85" s="5">
+        <v>3</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="86" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E86" s="1" t="s">
-        <v>187</v>
+        <v>223</v>
+      </c>
+      <c r="F86" s="5">
+        <v>4</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="87" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E87" s="1" t="s">
-        <v>189</v>
+        <v>225</v>
+      </c>
+      <c r="F87" s="5">
+        <v>5</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S87" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="88" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E88" s="1" t="s">
-        <v>191</v>
+        <v>227</v>
+      </c>
+      <c r="F88" s="5">
+        <v>2</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S88" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="89" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E89" s="1" t="s">
-        <v>192</v>
+        <v>21</v>
+      </c>
+      <c r="F89" s="5">
+        <v>3</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="90" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E90" s="1" t="s">
-        <v>195</v>
+        <v>22</v>
+      </c>
+      <c r="F90" s="5">
+        <v>3</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="91" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E91" s="1" t="s">
-        <v>196</v>
+        <v>37</v>
+      </c>
+      <c r="F91" s="5">
+        <v>3</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="92" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E92" s="1" t="s">
-        <v>201</v>
+        <v>142</v>
+      </c>
+      <c r="F92" s="5">
+        <v>4</v>
       </c>
       <c r="O92" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="S92" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="93" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="O93" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="S92" s="1" t="s">
+      <c r="S93" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="93" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E93" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="O93" s="1" t="s">
+    <row r="94" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="O94" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="S93" s="1" t="s">
+      <c r="S94" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="94" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E94" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="O94" s="1" t="s">
+    <row r="95" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="O95" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="S94" s="1" t="s">
+      <c r="S95" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="95" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E95" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="O95" s="1" t="s">
+    <row r="96" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="O96" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="S96" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="97" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O97" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="S95" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="96" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E96" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="O96" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="S96" s="1" t="s">
+      <c r="S97" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="97" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E97" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O97" s="1" t="s">
+    <row r="98" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O98" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="S97" s="1" t="s">
+      <c r="S98" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="98" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E98" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="O98" s="1" t="s">
+    <row r="99" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O99" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="S98" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="99" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E99" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="O99" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="S99" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E100" s="1" t="s">
-        <v>220</v>
-      </c>
+    <row r="100" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O100" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="S100" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="101" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O101" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="S100" s="1" t="s">
+      <c r="S101" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="101" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E101" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="O101" s="1" t="s">
+    <row r="102" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O102" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="S102" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="103" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O103" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="S101" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="102" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E102" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="O102" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="S102" s="1" t="s">
+      <c r="S103" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="103" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E103" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O103" s="1" t="s">
+    <row r="104" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O104" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="S103" s="1" t="s">
+      <c r="S104" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="104" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="O104" s="1" t="s">
+    <row r="105" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O105" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="S104" s="1" t="s">
+      <c r="S105" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="105" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="O105" s="1" t="s">
+    <row r="106" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O106" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="S105" s="1" t="s">
+      <c r="S106" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="106" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="O106" s="1" t="s">
+    <row r="107" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O107" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="S106" s="1" t="s">
+      <c r="S107" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="107" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="O107" s="1" t="s">
+    <row r="108" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O108" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="S107" s="1" t="s">
+      <c r="S108" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="108" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="O108" s="1" t="s">
+    <row r="109" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O109" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="S108" s="1" t="s">
+      <c r="S109" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="109" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="O109" s="1" t="s">
+    <row r="110" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O110" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="S109" s="1" t="s">
+      <c r="S110" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="110" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="O110" s="1" t="s">
+    <row r="111" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O111" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="S110" s="1" t="s">
+      <c r="S111" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="111" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="O111" s="1" t="s">
+    <row r="112" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O112" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="S111" s="1" t="s">
+      <c r="S112" s="1" t="s">
         <v>448</v>
-      </c>
-    </row>
-    <row r="112" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="O112" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="S112" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="113" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O113" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="S113" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="114" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O114" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S114" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="115" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O115" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S115" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="116" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O116" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S116" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="117" spans="15:19" x14ac:dyDescent="0.25">
       <c r="S117" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="118" spans="15:19" x14ac:dyDescent="0.25">
       <c r="S118" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="119" spans="15:19" x14ac:dyDescent="0.25">
       <c r="S119" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="120" spans="15:19" x14ac:dyDescent="0.25">
       <c r="S120" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="121" spans="15:19" x14ac:dyDescent="0.25">
       <c r="S121" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="122" spans="15:19" x14ac:dyDescent="0.25">
       <c r="S122" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="123" spans="15:19" x14ac:dyDescent="0.25">
       <c r="S123" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="124" spans="15:19" x14ac:dyDescent="0.25">
       <c r="S124" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="125" spans="15:19" x14ac:dyDescent="0.25">
       <c r="S125" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="126" spans="15:19" x14ac:dyDescent="0.25">
       <c r="S126" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="127" spans="15:19" x14ac:dyDescent="0.25">
       <c r="S127" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="128" spans="15:19" x14ac:dyDescent="0.25">
       <c r="S128" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="129" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S129" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="130" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S130" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="131" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S131" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="132" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S132" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="133" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S133" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="134" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S134" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="135" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S135" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="136" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S136" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="137" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S137" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="138" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S138" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="139" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S139" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="140" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S140" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="141" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S141" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="142" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S142" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="143" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S143" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="144" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S144" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="145" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S145" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="146" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S146" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="147" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S147" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="148" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S148" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="149" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S149" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="150" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S150" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="151" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S151" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="152" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S152" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="153" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S153" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="154" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S154" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="155" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S155" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="156" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S156" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="157" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S157" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="158" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S158" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="159" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S159" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="160" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S160" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="161" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S161" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="162" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S162" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="163" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S163" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="164" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S164" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="165" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S165" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="166" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S166" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="167" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S167" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="168" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S168" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="169" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S169" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="170" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S170" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="171" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S171" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="172" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S172" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="173" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S173" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="174" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S174" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="175" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S175" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="176" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S176" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="177" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S177" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="178" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S178" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="179" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S179" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="180" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S180" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="181" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S181" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="182" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S182" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="183" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S183" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="184" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S184" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="185" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S185" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="186" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S186" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="187" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S187" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="188" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S188" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="189" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S189" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="190" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S190" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="191" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S191" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="192" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S192" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="193" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S193" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="194" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S194" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="195" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S195" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="196" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S196" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="197" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S197" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="198" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S198" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="199" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S199" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="200" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S200" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="201" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S201" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="202" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S202" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="203" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S203" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="204" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S204" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="205" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S205" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="206" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S206" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="207" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S207" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="208" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S208" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="209" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S209" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="210" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S210" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="211" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S211" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="212" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S212" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="213" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S213" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="214" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S214" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="215" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S215" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="216" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S216" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="217" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S217" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="218" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S218" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="219" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S219" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="220" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S220" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="221" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S221" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="222" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S222" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="223" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S223" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="224" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S224" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="225" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S225" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="226" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S226" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="227" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S227" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="228" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S228" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="229" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S229" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="230" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S230" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="231" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S231" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="232" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S232" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="233" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S233" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="234" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S234" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="235" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S235" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="236" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S236" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="237" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S237" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="238" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S238" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="239" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S239" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="240" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S240" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="241" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S241" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="242" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S242" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="243" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S243" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="244" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S244" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="245" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S245" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="246" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S246" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="247" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S247" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="248" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S248" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="249" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S249" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="250" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S250" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="251" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S251" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="252" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S252" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="253" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S253" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="254" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S254" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="255" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S255" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="256" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S256" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="257" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S257" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="258" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S258" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="259" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S259" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="260" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S260" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="261" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S261" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="262" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S262" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="263" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S263" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="264" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S264" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="265" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S265" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="266" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S266" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="267" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S267" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="268" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S268" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="269" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S269" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="270" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S270" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="271" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S271" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="272" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S272" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="273" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S273" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="274" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S274" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="275" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S275" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="276" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S276" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="277" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S277" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="278" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S278" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="279" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S279" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="280" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S280" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="281" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S281" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="282" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S282" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="283" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S283" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="284" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S284" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="285" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S285" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="286" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S286" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="287" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S287" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="288" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S288" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="289" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S289" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="290" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S290" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="291" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S291" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="292" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S292" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="293" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S293" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="294" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S294" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="295" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S295" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="296" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S296" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S296"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G3" t="s">
+        <v>645</v>
+      </c>
+      <c r="I3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>631</v>
+      </c>
+      <c r="I4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>649</v>
+      </c>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="7"/>
+      <c r="E22" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="7"/>
+      <c r="E23" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="7"/>
+      <c r="E24" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="7"/>
+      <c r="E25" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="7"/>
+      <c r="E26" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="7"/>
+      <c r="E27" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="7"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="S39" s="1"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="S43" s="1"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="S47" s="1"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="S48" s="1"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="S49" s="1"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="S50" s="1"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="S51" s="1"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="S52" s="1"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="S53" s="1"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="S54" s="1"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="S55" s="1"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="S56" s="1"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="S57" s="1"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="S58" s="1"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="S59" s="1"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="S60" s="1"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="S61" s="1"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="S62" s="1"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="S63" s="1"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="S64" s="1"/>
+    </row>
+    <row r="65" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="S65" s="1"/>
+    </row>
+    <row r="66" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="S66" s="1"/>
+    </row>
+    <row r="67" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E67" s="1"/>
+      <c r="G67" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="S67" s="1"/>
+    </row>
+    <row r="68" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="S68" s="1"/>
+    </row>
+    <row r="69" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="S69" s="1"/>
+    </row>
+    <row r="70" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="S70" s="1"/>
+    </row>
+    <row r="71" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E71" s="1"/>
+      <c r="G71" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="S71" s="1"/>
+    </row>
+    <row r="72" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="S72" s="1"/>
+    </row>
+    <row r="73" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E73" s="1"/>
+      <c r="S73" s="1"/>
+    </row>
+    <row r="74" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E74" s="1"/>
+      <c r="S74" s="1"/>
+    </row>
+    <row r="75" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E75" s="1"/>
+      <c r="S75" s="1"/>
+    </row>
+    <row r="76" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E76" s="1"/>
+      <c r="S76" s="1"/>
+    </row>
+    <row r="77" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E77" s="1"/>
+      <c r="S77" s="1"/>
+    </row>
+    <row r="78" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E78" s="1"/>
+      <c r="S78" s="1"/>
+    </row>
+    <row r="79" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E79" s="1"/>
+      <c r="S79" s="1"/>
+    </row>
+    <row r="80" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E80" s="1"/>
+      <c r="S80" s="1"/>
+    </row>
+    <row r="81" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E81" s="1"/>
+      <c r="S81" s="1"/>
+    </row>
+    <row r="82" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E82" s="1"/>
+      <c r="S82" s="1"/>
+    </row>
+    <row r="83" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E83" s="1"/>
+      <c r="S83" s="1"/>
+    </row>
+    <row r="84" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E84" s="1"/>
+      <c r="S84" s="1"/>
+    </row>
+    <row r="85" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E85" s="1"/>
+      <c r="S85" s="1"/>
+    </row>
+    <row r="86" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E86" s="1"/>
+      <c r="S86" s="1"/>
+    </row>
+    <row r="87" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E87" s="1"/>
+      <c r="S87" s="1"/>
+    </row>
+    <row r="88" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E88" s="1"/>
+      <c r="S88" s="1"/>
+    </row>
+    <row r="89" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E89" s="1"/>
+      <c r="S89" s="1"/>
+    </row>
+    <row r="90" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E90" s="1"/>
+      <c r="S90" s="1"/>
+    </row>
+    <row r="91" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E91" s="1"/>
+      <c r="S91" s="1"/>
+    </row>
+    <row r="92" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E92" s="1"/>
+      <c r="S92" s="1"/>
+    </row>
+    <row r="93" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="S93" s="1"/>
+    </row>
+    <row r="94" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="S94" s="1"/>
+    </row>
+    <row r="95" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="S95" s="1"/>
+    </row>
+    <row r="96" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="S96" s="1"/>
+    </row>
+    <row r="97" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S97" s="1"/>
+    </row>
+    <row r="98" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S98" s="1"/>
+    </row>
+    <row r="99" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S99" s="1"/>
+    </row>
+    <row r="100" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S100" s="1"/>
+    </row>
+    <row r="101" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S101" s="1"/>
+    </row>
+    <row r="102" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S102" s="1"/>
+    </row>
+    <row r="103" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S103" s="1"/>
+    </row>
+    <row r="104" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S104" s="1"/>
+    </row>
+    <row r="105" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S105" s="1"/>
+    </row>
+    <row r="106" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S106" s="1"/>
+    </row>
+    <row r="107" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S107" s="1"/>
+    </row>
+    <row r="108" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S108" s="1"/>
+    </row>
+    <row r="109" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S109" s="1"/>
+    </row>
+    <row r="110" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S110" s="1"/>
+    </row>
+    <row r="111" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S111" s="1"/>
+    </row>
+    <row r="112" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S112" s="1"/>
+    </row>
+    <row r="113" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S113" s="1"/>
+    </row>
+    <row r="114" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S114" s="1"/>
+    </row>
+    <row r="115" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S115" s="1"/>
+    </row>
+    <row r="116" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S116" s="1"/>
+    </row>
+    <row r="117" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S117" s="1"/>
+    </row>
+    <row r="118" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S118" s="1"/>
+    </row>
+    <row r="119" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S119" s="1"/>
+    </row>
+    <row r="120" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S120" s="1"/>
+    </row>
+    <row r="121" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S121" s="1"/>
+    </row>
+    <row r="122" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S122" s="1"/>
+    </row>
+    <row r="123" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S123" s="1"/>
+    </row>
+    <row r="124" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S124" s="1"/>
+    </row>
+    <row r="125" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S125" s="1"/>
+    </row>
+    <row r="126" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S126" s="1"/>
+    </row>
+    <row r="127" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S127" s="1"/>
+    </row>
+    <row r="128" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S128" s="1"/>
+    </row>
+    <row r="129" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S129" s="1"/>
+    </row>
+    <row r="130" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S130" s="1"/>
+    </row>
+    <row r="131" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S131" s="1"/>
+    </row>
+    <row r="132" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S132" s="1"/>
+    </row>
+    <row r="133" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S133" s="1"/>
+    </row>
+    <row r="134" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S134" s="1"/>
+    </row>
+    <row r="135" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S135" s="1"/>
+    </row>
+    <row r="136" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S136" s="1"/>
+    </row>
+    <row r="137" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S137" s="1"/>
+    </row>
+    <row r="138" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S138" s="1"/>
+    </row>
+    <row r="139" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S139" s="1"/>
+    </row>
+    <row r="140" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S140" s="1"/>
+    </row>
+    <row r="141" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S141" s="1"/>
+    </row>
+    <row r="142" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S142" s="1"/>
+    </row>
+    <row r="143" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S143" s="1"/>
+    </row>
+    <row r="144" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S144" s="1"/>
+    </row>
+    <row r="145" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S145" s="1"/>
+    </row>
+    <row r="146" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S146" s="1"/>
+    </row>
+    <row r="147" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S147" s="1"/>
+    </row>
+    <row r="148" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S148" s="1"/>
+    </row>
+    <row r="149" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S149" s="1"/>
+    </row>
+    <row r="150" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S150" s="1"/>
+    </row>
+    <row r="151" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S151" s="1"/>
+    </row>
+    <row r="152" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S152" s="1"/>
+    </row>
+    <row r="153" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S153" s="1"/>
+    </row>
+    <row r="154" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S154" s="1"/>
+    </row>
+    <row r="155" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S155" s="1"/>
+    </row>
+    <row r="156" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S156" s="1"/>
+    </row>
+    <row r="157" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S157" s="1"/>
+    </row>
+    <row r="158" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S158" s="1"/>
+    </row>
+    <row r="159" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S159" s="1"/>
+    </row>
+    <row r="160" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S160" s="1"/>
+    </row>
+    <row r="161" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S161" s="1"/>
+    </row>
+    <row r="162" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S162" s="1"/>
+    </row>
+    <row r="163" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S163" s="1"/>
+    </row>
+    <row r="164" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S164" s="1"/>
+    </row>
+    <row r="165" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S165" s="1"/>
+    </row>
+    <row r="166" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S166" s="1"/>
+    </row>
+    <row r="167" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S167" s="1"/>
+    </row>
+    <row r="168" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S168" s="1"/>
+    </row>
+    <row r="169" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S169" s="1"/>
+    </row>
+    <row r="170" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S170" s="1"/>
+    </row>
+    <row r="171" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S171" s="1"/>
+    </row>
+    <row r="172" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S172" s="1"/>
+    </row>
+    <row r="173" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S173" s="1"/>
+    </row>
+    <row r="174" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S174" s="1"/>
+    </row>
+    <row r="175" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S175" s="1"/>
+    </row>
+    <row r="176" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S176" s="1"/>
+    </row>
+    <row r="177" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S177" s="1"/>
+    </row>
+    <row r="178" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S178" s="1"/>
+    </row>
+    <row r="179" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S179" s="1"/>
+    </row>
+    <row r="180" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S180" s="1"/>
+    </row>
+    <row r="181" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S181" s="1"/>
+    </row>
+    <row r="182" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S182" s="1"/>
+    </row>
+    <row r="183" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S183" s="1"/>
+    </row>
+    <row r="184" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S184" s="1"/>
+    </row>
+    <row r="185" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S185" s="1"/>
+    </row>
+    <row r="186" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S186" s="1"/>
+    </row>
+    <row r="187" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S187" s="1"/>
+    </row>
+    <row r="188" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S188" s="1"/>
+    </row>
+    <row r="189" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S189" s="1"/>
+    </row>
+    <row r="190" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S190" s="1"/>
+    </row>
+    <row r="191" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S191" s="1"/>
+    </row>
+    <row r="192" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S192" s="1"/>
+    </row>
+    <row r="193" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S193" s="1"/>
+    </row>
+    <row r="194" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S194" s="1"/>
+    </row>
+    <row r="195" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S195" s="1"/>
+    </row>
+    <row r="196" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S196" s="1"/>
+    </row>
+    <row r="197" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S197" s="1"/>
+    </row>
+    <row r="198" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S198" s="1"/>
+    </row>
+    <row r="199" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S199" s="1"/>
+    </row>
+    <row r="200" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S200" s="1"/>
+    </row>
+    <row r="201" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S201" s="1"/>
+    </row>
+    <row r="202" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S202" s="1"/>
+    </row>
+    <row r="203" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S203" s="1"/>
+    </row>
+    <row r="204" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S204" s="1"/>
+    </row>
+    <row r="205" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S205" s="1"/>
+    </row>
+    <row r="206" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S206" s="1"/>
+    </row>
+    <row r="207" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S207" s="1"/>
+    </row>
+    <row r="208" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S208" s="1"/>
+    </row>
+    <row r="209" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S209" s="1"/>
+    </row>
+    <row r="210" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S210" s="1"/>
+    </row>
+    <row r="211" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S211" s="1"/>
+    </row>
+    <row r="212" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S212" s="1"/>
+    </row>
+    <row r="213" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S213" s="1"/>
+    </row>
+    <row r="214" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S214" s="1"/>
+    </row>
+    <row r="215" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S215" s="1"/>
+    </row>
+    <row r="216" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S216" s="1"/>
+    </row>
+    <row r="217" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S217" s="1"/>
+    </row>
+    <row r="218" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S218" s="1"/>
+    </row>
+    <row r="219" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S219" s="1"/>
+    </row>
+    <row r="220" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S220" s="1"/>
+    </row>
+    <row r="221" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S221" s="1"/>
+    </row>
+    <row r="222" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S222" s="1"/>
+    </row>
+    <row r="223" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S223" s="1"/>
+    </row>
+    <row r="224" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S224" s="1"/>
+    </row>
+    <row r="225" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S225" s="1"/>
+    </row>
+    <row r="226" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S226" s="1"/>
+    </row>
+    <row r="227" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S227" s="1"/>
+    </row>
+    <row r="228" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S228" s="1"/>
+    </row>
+    <row r="229" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S229" s="1"/>
+    </row>
+    <row r="230" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S230" s="1"/>
+    </row>
+    <row r="231" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S231" s="1"/>
+    </row>
+    <row r="232" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S232" s="1"/>
+    </row>
+    <row r="233" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S233" s="1"/>
+    </row>
+    <row r="234" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S234" s="1"/>
+    </row>
+    <row r="235" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S235" s="1"/>
+    </row>
+    <row r="236" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S236" s="1"/>
+    </row>
+    <row r="237" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S237" s="1"/>
+    </row>
+    <row r="238" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S238" s="1"/>
+    </row>
+    <row r="239" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S239" s="1"/>
+    </row>
+    <row r="240" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S240" s="1"/>
+    </row>
+    <row r="241" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S241" s="1"/>
+    </row>
+    <row r="242" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S242" s="1"/>
+    </row>
+    <row r="243" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S243" s="1"/>
+    </row>
+    <row r="244" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S244" s="1"/>
+    </row>
+    <row r="245" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S245" s="1"/>
+    </row>
+    <row r="246" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S246" s="1"/>
+    </row>
+    <row r="247" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S247" s="1"/>
+    </row>
+    <row r="248" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S248" s="1"/>
+    </row>
+    <row r="249" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S249" s="1"/>
+    </row>
+    <row r="250" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S250" s="1"/>
+    </row>
+    <row r="251" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S251" s="1"/>
+    </row>
+    <row r="252" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S252" s="1"/>
+    </row>
+    <row r="253" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S253" s="1"/>
+    </row>
+    <row r="254" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S254" s="1"/>
+    </row>
+    <row r="255" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S255" s="1"/>
+    </row>
+    <row r="256" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S256" s="1"/>
+    </row>
+    <row r="257" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S257" s="1"/>
+    </row>
+    <row r="258" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S258" s="1"/>
+    </row>
+    <row r="259" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S259" s="1"/>
+    </row>
+    <row r="260" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S260" s="1"/>
+    </row>
+    <row r="261" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S261" s="1"/>
+    </row>
+    <row r="262" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S262" s="1"/>
+    </row>
+    <row r="263" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S263" s="1"/>
+    </row>
+    <row r="264" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S264" s="1"/>
+    </row>
+    <row r="265" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S265" s="1"/>
+    </row>
+    <row r="266" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S266" s="1"/>
+    </row>
+    <row r="267" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S267" s="1"/>
+    </row>
+    <row r="268" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S268" s="1"/>
+    </row>
+    <row r="269" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S269" s="1"/>
+    </row>
+    <row r="270" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S270" s="1"/>
+    </row>
+    <row r="271" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S271" s="1"/>
+    </row>
+    <row r="272" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S272" s="1"/>
+    </row>
+    <row r="273" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S273" s="1"/>
+    </row>
+    <row r="274" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S274" s="1"/>
+    </row>
+    <row r="275" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S275" s="1"/>
+    </row>
+    <row r="276" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S276" s="1"/>
+    </row>
+    <row r="277" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S277" s="1"/>
+    </row>
+    <row r="278" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S278" s="1"/>
+    </row>
+    <row r="279" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S279" s="1"/>
+    </row>
+    <row r="280" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S280" s="1"/>
+    </row>
+    <row r="281" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S281" s="1"/>
+    </row>
+    <row r="282" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S282" s="1"/>
+    </row>
+    <row r="283" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S283" s="1"/>
+    </row>
+    <row r="284" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S284" s="1"/>
+    </row>
+    <row r="285" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S285" s="1"/>
+    </row>
+    <row r="286" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S286" s="1"/>
+    </row>
+    <row r="287" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S287" s="1"/>
+    </row>
+    <row r="288" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S288" s="1"/>
+    </row>
+    <row r="289" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S289" s="1"/>
+    </row>
+    <row r="290" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S290" s="1"/>
+    </row>
+    <row r="291" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S291" s="1"/>
+    </row>
+    <row r="292" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S292" s="1"/>
+    </row>
+    <row r="293" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S293" s="1"/>
+    </row>
+    <row r="294" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S294" s="1"/>
+    </row>
+    <row r="295" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S295" s="1"/>
+    </row>
+    <row r="296" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S296" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I298"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G3" t="s">
+        <v>645</v>
+      </c>
+      <c r="I3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>631</v>
+      </c>
+      <c r="I4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="7"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="7"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="7"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="7"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="7"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="65" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="66" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="67" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E67" s="1"/>
+      <c r="G67" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="68" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="69" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="70" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="71" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E71" s="1"/>
+      <c r="G71" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="72" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="73" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E73" s="1"/>
+      <c r="G73" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="74" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="75" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="76" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="77" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E77" s="1"/>
+      <c r="G77" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="78" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E78" s="1"/>
+      <c r="G78" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="79" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E79" s="1"/>
+      <c r="G79" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="80" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E80" s="1"/>
+      <c r="G80" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="81" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E81" s="1"/>
+      <c r="G81" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E82" s="1"/>
+      <c r="G82" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="83" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E83" s="1"/>
+      <c r="G83" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="84" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E84" s="1"/>
+      <c r="G84" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="85" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E85" s="1"/>
+      <c r="G85" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="86" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E86" s="1"/>
+      <c r="G86" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="87" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E87" s="1"/>
+      <c r="G87" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="88" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E88" s="1"/>
+      <c r="G88" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="89" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E89" s="1"/>
+      <c r="G89" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="90" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E90" s="1"/>
+      <c r="G90" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="91" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E91" s="1"/>
+      <c r="G91" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="92" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E92" s="1"/>
+      <c r="G92" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="93" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G93" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="94" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G94" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="95" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G95" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="96" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G96" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G97" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="98" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G98" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="99" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G99" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="100" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G100" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="101" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G101" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G102" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="103" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G103" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="104" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G104" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="105" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G105" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="106" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G106" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="107" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G107" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="108" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G108" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="109" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G109" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="110" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G110" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="111" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G111" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="112" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G112" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="113" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G113" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G114" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="115" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G115" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="116" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G116" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="117" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G117" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="118" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G118" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="119" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G119" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="120" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G120" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="121" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G121" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="122" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G122" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="123" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G123" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="124" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G124" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="125" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G125" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="126" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G126" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="127" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G127" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="128" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G128" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="129" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G129" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="130" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G130" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="131" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G131" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="132" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G132" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="133" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G133" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="134" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G134" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="135" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G135" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="136" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G136" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="137" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G137" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="138" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G138" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="139" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G139" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="140" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G140" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="141" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G141" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="142" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G142" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="143" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G143" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="144" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G144" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="145" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G145" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="146" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G146" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="147" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G147" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="148" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G148" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="149" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G149" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="150" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G150" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="151" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G151" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="152" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G152" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="153" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G153" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="154" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G154" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="155" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G155" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="156" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G156" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="157" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G157" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="158" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G158" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="159" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G159" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="160" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G160" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="161" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G161" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="162" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G162" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="163" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G163" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="164" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G164" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="165" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G165" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="166" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G166" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="167" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G167" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="168" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G168" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="169" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G169" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="170" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G170" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="171" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G171" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="172" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G172" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="173" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G173" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="174" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G174" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="175" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G175" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="176" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G176" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="177" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G177" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="178" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G178" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="179" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G179" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="180" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G180" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="181" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G181" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="182" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G182" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="183" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G183" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="184" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G184" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="185" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G185" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="186" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G186" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="187" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G187" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="188" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G188" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="189" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G189" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="190" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G190" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="191" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G191" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="192" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G192" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="193" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G193" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="194" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G194" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="195" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G195" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="196" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G196" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="197" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G197" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="198" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G198" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="199" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G199" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="200" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G200" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="201" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G201" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="202" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G202" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="203" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G203" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="204" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G204" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="205" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G205" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="206" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G206" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="207" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G207" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="208" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G208" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="209" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G209" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="210" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G210" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="211" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G211" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="212" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G212" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="213" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G213" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="214" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G214" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="215" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G215" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="216" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G216" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="217" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G217" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="218" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G218" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="219" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G219" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="220" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G220" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="221" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G221" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="222" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G222" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="223" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G223" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="224" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G224" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="225" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G225" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="226" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G226" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="227" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G227" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="228" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G228" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="229" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G229" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="230" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G230" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="231" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G231" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="232" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G232" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="233" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G233" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="234" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G234" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="235" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G235" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="236" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G236" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="237" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G237" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="238" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G238" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="239" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G239" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="240" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G240" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="241" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G241" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="242" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G242" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="243" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G243" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="244" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G244" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="245" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G245" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="246" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G246" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="247" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G247" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="248" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G248" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="249" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G249" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="250" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G250" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="251" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G251" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="252" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G252" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="253" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G253" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="254" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G254" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="255" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G255" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="256" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G256" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="257" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G257" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="258" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G258" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="259" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G259" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="260" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G260" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="261" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G261" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="262" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G262" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="263" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G263" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="264" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G264" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="265" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G265" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="266" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G266" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="267" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G267" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="268" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G268" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="269" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G269" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="270" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G270" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="271" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G271" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="272" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G272" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="273" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G273" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="274" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G274" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="275" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G275" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="276" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G276" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="277" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G277" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="278" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G278" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="279" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G279" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="280" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G280" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="281" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G281" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="282" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G282" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="283" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G283" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="284" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G284" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="285" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G285" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="286" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G286" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="287" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G287" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="288" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G288" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="289" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G289" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="290" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G290" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="291" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G291" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="292" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G292" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="293" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G293" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="294" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G294" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="295" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G295" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="296" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G296" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="297" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G297" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="298" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G298" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>